--- a/Copy of Class 6 Admission Info.xlsx
+++ b/Copy of Class 6 Admission Info.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOURAV TRADERS\Desktop\New folder\Study-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B86B05-E581-4B2B-AB55-02622B20A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA6489C-AB37-4F6C-B156-9AF3C4F37CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sathi" sheetId="6" r:id="rId1"/>
-    <sheet name="Khushi" sheetId="5" r:id="rId2"/>
-    <sheet name="gunjon" sheetId="4" r:id="rId3"/>
-    <sheet name="SUMAIYA" sheetId="3" r:id="rId4"/>
-    <sheet name="SHRABONTI" sheetId="2" r:id="rId5"/>
-    <sheet name="SISTY" sheetId="1" r:id="rId6"/>
+    <sheet name="Kulsum" sheetId="8" r:id="rId1"/>
+    <sheet name="Anamika" sheetId="7" r:id="rId2"/>
+    <sheet name="Sathi" sheetId="6" r:id="rId3"/>
+    <sheet name="Khushi" sheetId="5" r:id="rId4"/>
+    <sheet name="SUMAIYA" sheetId="3" r:id="rId5"/>
+    <sheet name="SHRABONTI" sheetId="2" r:id="rId6"/>
+    <sheet name="SISTY" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
   <si>
     <t>নাম</t>
   </si>
@@ -160,36 +161,6 @@
     <t>KANIAL KHATA PORAPARA</t>
   </si>
   <si>
-    <t>sree gunjon roy shuvon</t>
-  </si>
-  <si>
-    <t>10-05-2013</t>
-  </si>
-  <si>
-    <t>20137316431039494</t>
-  </si>
-  <si>
-    <t>01733283338</t>
-  </si>
-  <si>
-    <t>jogendra nath roy</t>
-  </si>
-  <si>
-    <t>8231164636</t>
-  </si>
-  <si>
-    <t>bobita rani</t>
-  </si>
-  <si>
-    <t>9576744024</t>
-  </si>
-  <si>
-    <t>Kanial khata mastar para</t>
-  </si>
-  <si>
-    <t>Prone Community Primary School</t>
-  </si>
-  <si>
     <t>Khushimoni roy</t>
   </si>
   <si>
@@ -199,7 +170,94 @@
     <t>20157316431040748</t>
   </si>
   <si>
-    <t>0173299043</t>
+    <t>Atul Chandro Roy</t>
+  </si>
+  <si>
+    <t>5106744443</t>
+  </si>
+  <si>
+    <t>sreemoty ganga rani</t>
+  </si>
+  <si>
+    <t>3755776519</t>
+  </si>
+  <si>
+    <t>Sathi Sharma</t>
+  </si>
+  <si>
+    <t>12-05-2013</t>
+  </si>
+  <si>
+    <t>20137316431040536</t>
+  </si>
+  <si>
+    <t>01313934352</t>
+  </si>
+  <si>
+    <t>Dayal Shel</t>
+  </si>
+  <si>
+    <t>2824604264</t>
+  </si>
+  <si>
+    <t>Maloti Rani</t>
+  </si>
+  <si>
+    <t>5974626771</t>
+  </si>
+  <si>
+    <t>KANIAL KHATA boiragi PARA</t>
+  </si>
+  <si>
+    <t>DOKKHIN KANIAL KHaTA MASTAR PARA</t>
+  </si>
+  <si>
+    <t>Anamika Rani Roy</t>
+  </si>
+  <si>
+    <t>12-12-2013</t>
+  </si>
+  <si>
+    <t>20137316431039588</t>
+  </si>
+  <si>
+    <t>01326025653</t>
+  </si>
+  <si>
+    <t>Santos Kumar Ray</t>
+  </si>
+  <si>
+    <t>5524458683</t>
+  </si>
+  <si>
+    <t>vagirathi rany</t>
+  </si>
+  <si>
+    <t>3294062249</t>
+  </si>
+  <si>
+    <t>Mst Umma Kulsum</t>
+  </si>
+  <si>
+    <t>23-01-2012</t>
+  </si>
+  <si>
+    <t>20127316431039187</t>
+  </si>
+  <si>
+    <t>01706807154</t>
+  </si>
+  <si>
+    <t>Nurnabi</t>
+  </si>
+  <si>
+    <t>19947316431000240</t>
+  </si>
+  <si>
+    <t>mst. Mahmuda Khatun</t>
+  </si>
+  <si>
+    <t>19947316431000306</t>
   </si>
 </sst>
 </file>
@@ -543,11 +601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5925181-8068-449B-9E6B-D62E727451E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3127A75F-5342-4E22-A930-8C79E7C774EF}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B1:B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,48 +618,65 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -625,11 +700,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA26A98-C654-4C8F-A25F-1B9A335A0226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E93F5B-7D30-4A45-8E2B-49E98FE50BBD}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5925181-8068-449B-9E6B-D62E727451E3}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,38 +844,47 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,105 +893,6 @@
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2F207B-2163-410F-A4C3-DAF2B172F230}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -814,11 +901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CDE8F7-FBE4-440B-952C-FE782903AC9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA26A98-C654-4C8F-A25F-1B9A335A0226}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,23 +935,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +998,112 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CDE8F7-FBE4-440B-952C-FE782903AC9E}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFE5440-EE40-4B29-A7A4-4F9E310B018F}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1011,12 +1201,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Copy of Class 6 Admission Info.xlsx
+++ b/Copy of Class 6 Admission Info.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOURAV TRADERS\Desktop\New folder\Study-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA6489C-AB37-4F6C-B156-9AF3C4F37CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991EDDA8-F34E-40C6-A928-763B7F4D4198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kulsum" sheetId="8" r:id="rId1"/>
-    <sheet name="Anamika" sheetId="7" r:id="rId2"/>
+    <sheet name="Nuri" sheetId="9" r:id="rId1"/>
+    <sheet name="Kulsum" sheetId="8" r:id="rId2"/>
     <sheet name="Sathi" sheetId="6" r:id="rId3"/>
-    <sheet name="Khushi" sheetId="5" r:id="rId4"/>
-    <sheet name="SUMAIYA" sheetId="3" r:id="rId5"/>
-    <sheet name="SHRABONTI" sheetId="2" r:id="rId6"/>
-    <sheet name="SISTY" sheetId="1" r:id="rId7"/>
+    <sheet name="Anamika" sheetId="7" r:id="rId4"/>
+    <sheet name="Khushi" sheetId="5" r:id="rId5"/>
+    <sheet name="SUMAIYA" sheetId="3" r:id="rId6"/>
+    <sheet name="SHRABONTI" sheetId="2" r:id="rId7"/>
+    <sheet name="SISTY" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>নাম</t>
   </si>
@@ -258,6 +259,36 @@
   </si>
   <si>
     <t>19947316431000306</t>
+  </si>
+  <si>
+    <t>01763299043</t>
+  </si>
+  <si>
+    <t>Nuri Akter</t>
+  </si>
+  <si>
+    <t>21-08-2012</t>
+  </si>
+  <si>
+    <t>20127316431041697</t>
+  </si>
+  <si>
+    <t>01346468836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur mohammad </t>
+  </si>
+  <si>
+    <t>6448364239</t>
+  </si>
+  <si>
+    <t>mrs. Nasima Begum</t>
+  </si>
+  <si>
+    <t>4640446003</t>
+  </si>
+  <si>
+    <t>KANIAL KHATA munsipara</t>
   </si>
 </sst>
 </file>
@@ -601,11 +632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3127A75F-5342-4E22-A930-8C79E7C774EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9D7969-76D0-49F4-A9A4-CD0B585F3219}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,208 +734,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E93F5B-7D30-4A45-8E2B-49E98FE50BBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3127A75F-5342-4E22-A930-8C79E7C774EF}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5925181-8068-449B-9E6B-D62E727451E3}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA26A98-C654-4C8F-A25F-1B9A335A0226}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -919,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,21 +771,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,6 +823,210 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5925181-8068-449B-9E6B-D62E727451E3}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E93F5B-7D30-4A45-8E2B-49E98FE50BBD}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -998,6 +1040,108 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA26A98-C654-4C8F-A25F-1B9A335A0226}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CDE8F7-FBE4-440B-952C-FE782903AC9E}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1099,7 +1243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFE5440-EE40-4B29-A7A4-4F9E310B018F}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1201,7 +1345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>

--- a/Copy of Class 6 Admission Info.xlsx
+++ b/Copy of Class 6 Admission Info.xlsx
@@ -5,22 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOURAV TRADERS\Desktop\New folder\Study-Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atosh\OneDrive\Desktop\Study-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991EDDA8-F34E-40C6-A928-763B7F4D4198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9153F390-2AD0-4E94-8E73-3D895C612E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nuri" sheetId="9" r:id="rId1"/>
-    <sheet name="Kulsum" sheetId="8" r:id="rId2"/>
-    <sheet name="Sathi" sheetId="6" r:id="rId3"/>
-    <sheet name="Anamika" sheetId="7" r:id="rId4"/>
-    <sheet name="Khushi" sheetId="5" r:id="rId5"/>
-    <sheet name="SUMAIYA" sheetId="3" r:id="rId6"/>
-    <sheet name="SHRABONTI" sheetId="2" r:id="rId7"/>
-    <sheet name="SISTY" sheetId="1" r:id="rId8"/>
+    <sheet name="joya" sheetId="11" r:id="rId1"/>
+    <sheet name="Nuri" sheetId="9" r:id="rId2"/>
+    <sheet name="Kulsum" sheetId="8" r:id="rId3"/>
+    <sheet name="Sathi" sheetId="6" r:id="rId4"/>
+    <sheet name="Anamika" sheetId="7" r:id="rId5"/>
+    <sheet name="Khushi" sheetId="5" r:id="rId6"/>
+    <sheet name="SUMAIYA" sheetId="3" r:id="rId7"/>
+    <sheet name="SHRABONTI" sheetId="2" r:id="rId8"/>
+    <sheet name="SISTY" sheetId="1" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>নাম</t>
   </si>
@@ -99,9 +101,6 @@
     <t>5974484189</t>
   </si>
   <si>
-    <t>DOKKHIN KANIAL KHTA MASTAR PARA</t>
-  </si>
-  <si>
     <t>BOIRAGI PARA AGROJATRA SHISHU BIKASH SCHOOL</t>
   </si>
   <si>
@@ -289,6 +288,33 @@
   </si>
   <si>
     <t>KANIAL KHATA munsipara</t>
+  </si>
+  <si>
+    <t>KANIAL KHATA</t>
+  </si>
+  <si>
+    <t>jaya rani</t>
+  </si>
+  <si>
+    <t>29-08-2012</t>
+  </si>
+  <si>
+    <t>20127316431041294</t>
+  </si>
+  <si>
+    <t>01326026347</t>
+  </si>
+  <si>
+    <t>sree narayan roy</t>
+  </si>
+  <si>
+    <t>7316431492642</t>
+  </si>
+  <si>
+    <t>sreemoty trisna rani</t>
+  </si>
+  <si>
+    <t>9155936843</t>
   </si>
 </sst>
 </file>
@@ -632,14 +658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9D7969-76D0-49F4-A9A4-CD0B585F3219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C2E3F-AB97-412B-8E48-90B7884CD1AB}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -733,14 +759,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0C61A9-5052-4120-8F54-0F6F30E60FA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9D7969-76D0-49F4-A9A4-CD0B585F3219}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3127A75F-5342-4E22-A930-8C79E7C774EF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -755,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -835,14 +975,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5925181-8068-449B-9E6B-D62E727451E3}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -857,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +1061,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +1077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E93F5B-7D30-4A45-8E2B-49E98FE50BBD}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -959,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -975,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -983,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -991,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -999,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1007,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1015,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1023,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1031,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA26A98-C654-4C8F-A25F-1B9A335A0226}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1061,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CDE8F7-FBE4-440B-952C-FE782903AC9E}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1163,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFE5440-EE40-4B29-A7A4-4F9E310B018F}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1265,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1281,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1289,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1297,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1305,7 +1445,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1313,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1329,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1337,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1345,15 +1485,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1431,7 +1571,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
